--- a/tests/data/output/一级测试用例-07001_result.xlsx
+++ b/tests/data/output/一级测试用例-07001_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,55 +369,60 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>用例编号</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>测试模块</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>用例标题</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>table_main</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>table_main_subA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>table_main_subB</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>预期测试结果</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>测试用例key</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>实际测试结果</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>是否通过</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>key_value_main</t>
         </is>
@@ -428,43 +433,50 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>31</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>07001</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>7001</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>lend_score</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>info_loan_stats.id;
 info_loan_stats.channel_score="850"</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>lend_score=850</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>850</v>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"user_name":"程雪梅","id_card_no":"34050619580628162X","phone":"18150923985"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>{"user_name":"郜健","id_card_no":"420202195704017316","phone":"18026551047"}</t>
         </is>
       </c>
     </row>
@@ -473,43 +485,50 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>32</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>07001</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>7001</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>lend_score</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>info_loan_stats.id;
 info_loan_stats.channel_score="700"</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>lend_score=700</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>700</v>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"user_name":"东璐","id_card_no":"361128196409158447","phone":"13522610422"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>{"user_name":"霍凤英","id_card_no":"370611194912072239","phone":"13019759289"}</t>
         </is>
       </c>
     </row>
@@ -518,43 +537,48 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
         <v>33</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>07001</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>7001</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>lend_score</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>info_loan_stats.id;
 info_loan_stats.channel_score=</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>lend_score=</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"user_name":"木斌","id_card_no":"350921198401043026","phone":"15842704476"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>{"user_name":"慎颖","id_card_no":"430223194908288563","phone":"15693436432"}</t>
         </is>
       </c>
     </row>
@@ -563,43 +587,52 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
         <v>34</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>07001</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>7001</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>lend_fail_rate</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>info_loan_stats.id;
 info_loan_stats.fail_rate="1.0"</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>lend_fail_rate=1.0</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{"user_name":"干桂花","id_card_no":"321183199909168837","phone":"15166944246"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>{"user_name":"冉辉","id_card_no":"520203193511047210","phone":"13709873882"}</t>
         </is>
       </c>
     </row>
@@ -608,43 +641,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
         <v>35</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>07001</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>7001</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>lend_fail_rate</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>info_loan_stats.id;
 info_loan_stats.fail_rate="0.5"</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>lend_fail_rate=0.5</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{"user_name":"罗荣","id_card_no":"150824199807169586","phone":"13012616110"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>{"user_name":"漆淑珍","id_card_no":"43102219871020600X","phone":"18144068313"}</t>
         </is>
       </c>
     </row>
@@ -653,43 +695,48 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
         <v>36</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>07001</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>7001</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>lend_fail_rate</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>info_loan_stats.id;
 info_loan_stats.fail_rate=</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
         <is>
           <t>lend_fail_rate=</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{"user_name":"宁楠","id_card_no":"42030319990706346X","phone":"15181320548"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>{"user_name":"利兰英","id_card_no":"411081198202018244","phone":"13491029185"}</t>
         </is>
       </c>
     </row>
@@ -698,24 +745,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>37</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>07001</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>7001</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>lend_cha_cnt_12m</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>info_loan_stats.id</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.latest_trans_count[0]="5";
@@ -726,24 +774,30 @@
 info_loan_stats_pay.recent_months[2]="RECENTLY_3M"</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>lend_cha_cnt_12m=8</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>8</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{"user_name":"田亮","id_card_no":"52262819960717436X","phone":"14776850804"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>{"user_name":"舌桂珍","id_card_no":"130423198512287474","phone":"15901771465"}</t>
         </is>
       </c>
     </row>
@@ -752,24 +806,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>38</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>07001</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>7001</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>lend_cha_cnt_12m</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>info_loan_stats.id</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.latest_trans_count[0]="5";
@@ -780,24 +835,30 @@
 info_loan_stats_pay.recent_months[2]="RECENTLY_3M"</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>lend_cha_cnt_12m=3</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{"user_name":"舒兰英","id_card_no":"350822193010223415","phone":"15274025728"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>{"user_name":"龙佳","id_card_no":"411301197803034768","phone":"15043371317"}</t>
         </is>
       </c>
     </row>
@@ -806,24 +867,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
         <v>39</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>07001</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>7001</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>lend_cha_cnt_12m</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>info_loan_stats.id</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.latest_trans_count[0]="5";
@@ -834,24 +896,30 @@
 info_loan_stats_pay.recent_months[2]="RECENTLY_6M"</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
         <is>
           <t>lend_cha_cnt_12m=3</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>3</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{"user_name":"纪萍","id_card_no":"511424195412224331","phone":"15969731495"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>{"user_name":"董晨","id_card_no":"370901198211194702","phone":"14718539241"}</t>
         </is>
       </c>
     </row>
@@ -860,24 +928,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
         <v>42</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>07001</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="n">
+        <v>7001</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>lend_chafail_cnt_12m</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>info_loan_stats.id</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.low_balance_fail_count[0]="5";
@@ -888,24 +957,30 @@
 info_loan_stats_pay.recent_months[2]="RECENTLY_3M"</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
         <is>
           <t>lend_chafail_cnt_12m=8</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>8</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{"user_name":"漆俊","id_card_no":"530500197609099366","phone":"13114323319"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>{"user_name":"韩桂英","id_card_no":"620321193810101215","phone":"18678452760"}</t>
         </is>
       </c>
     </row>
@@ -914,24 +989,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
         <v>43</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>07001</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>7001</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>lend_chafail_cnt_12m</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>info_loan_stats.id</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.low_balance_fail_count[0]="5";
@@ -942,24 +1018,30 @@
 info_loan_stats_pay.recent_months[2]="RECENTLY_3M"</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
         <is>
           <t>lend_chafail_cnt_12m=3</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{"user_name":"魏文","id_card_no":"430103198901216193","phone":"15521324314"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>{"user_name":"寿桂芝","id_card_no":"130531196709145222","phone":"14555290211"}</t>
         </is>
       </c>
     </row>
@@ -968,24 +1050,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
         <v>44</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>07001</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>7001</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>lend_chafail_cnt_12m</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>info_loan_stats.id</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.low_balance_fail_count[0]="5";
@@ -996,24 +1079,30 @@
 info_loan_stats_pay.recent_months[2]="RECENTLY_6M"</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
         <is>
           <t>lend_chafail_cnt_12m=3</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>3</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{"user_name":"糜坤","id_card_no":"450922200107054584","phone":"13010974322"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>{"user_name":"汤红","id_card_no":"341821199011054035","phone":"15222037677"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-07001_result.xlsx
+++ b/tests/data/output/一级测试用例-07001_result.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"郜健","id_card_no":"420202195704017316","phone":"18026551047"}</t>
+          <t>{"user_name":"苏淑华","id_card_no":"620104195502203756","phone":"15046214763"}</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"霍凤英","id_card_no":"370611194912072239","phone":"13019759289"}</t>
+          <t>{"user_name":"诸建国","id_card_no":"440401199102144330","phone":"15542748428"}</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"慎颖","id_card_no":"430223194908288563","phone":"15693436432"}</t>
+          <t>{"user_name":"赖平","id_card_no":"610725196603076933","phone":"15976745473"}</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"冉辉","id_card_no":"520203193511047210","phone":"13709873882"}</t>
+          <t>{"user_name":"韩瑞","id_card_no":"340323196509060812","phone":"13926892281"}</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"漆淑珍","id_card_no":"43102219871020600X","phone":"18144068313"}</t>
+          <t>{"user_name":"孙刚","id_card_no":"220104195307297772","phone":"13128636575"}</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"利兰英","id_card_no":"411081198202018244","phone":"13491029185"}</t>
+          <t>{"user_name":"景飞","id_card_no":"410381194403047444","phone":"18672343129"}</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"舌桂珍","id_card_no":"130423198512287474","phone":"15901771465"}</t>
+          <t>{"user_name":"巢芳","id_card_no":"512022196008081579","phone":"18657056664"}</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"龙佳","id_card_no":"411301197803034768","phone":"15043371317"}</t>
+          <t>{"user_name":"正婷婷","id_card_no":"61042519531103073X","phone":"18921978876"}</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"董晨","id_card_no":"370901198211194702","phone":"14718539241"}</t>
+          <t>{"user_name":"连琴","id_card_no":"211404197011010087","phone":"13354573819"}</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"韩桂英","id_card_no":"620321193810101215","phone":"18678452760"}</t>
+          <t>{"user_name":"跋淑珍","id_card_no":"152201198304156425","phone":"18271984388"}</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"寿桂芝","id_card_no":"130531196709145222","phone":"14555290211"}</t>
+          <t>{"user_name":"阎坤","id_card_no":"120221194211075634","phone":"13432950446"}</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"汤红","id_card_no":"341821199011054035","phone":"15222037677"}</t>
+          <t>{"user_name":"凌建国","id_card_no":"220582196109225319","phone":"18714638023"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-07001_result.xlsx
+++ b/tests/data/output/一级测试用例-07001_result.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"苏淑华","id_card_no":"620104195502203756","phone":"15046214763"}</t>
+          <t>{"user_name":"亓坤","id_card_no":"469021198503244923","phone":"13650563367"}</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"诸建国","id_card_no":"440401199102144330","phone":"15542748428"}</t>
+          <t>{"user_name":"康秀芳","id_card_no":"522322198806169492","phone":"15152147376"}</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"赖平","id_card_no":"610725196603076933","phone":"15976745473"}</t>
+          <t>{"user_name":"伍丹丹","id_card_no":"140221197901026722","phone":"13827711665"}</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"韩瑞","id_card_no":"340323196509060812","phone":"13926892281"}</t>
+          <t>{"user_name":"单博","id_card_no":"130603195704088746","phone":"13970292189"}</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"孙刚","id_card_no":"220104195307297772","phone":"13128636575"}</t>
+          <t>{"user_name":"奚玉珍","id_card_no":"37010019880106414X","phone":"14759935612"}</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"景飞","id_card_no":"410381194403047444","phone":"18672343129"}</t>
+          <t>{"user_name":"华淑英","id_card_no":"532923199601117600","phone":"13868832062"}</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"巢芳","id_card_no":"512022196008081579","phone":"18657056664"}</t>
+          <t>{"user_name":"惠东","id_card_no":"500243193612028622","phone":"14549137603"}</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"正婷婷","id_card_no":"61042519531103073X","phone":"18921978876"}</t>
+          <t>{"user_name":"郁玉英","id_card_no":"610626196809092198","phone":"13445300521"}</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"连琴","id_card_no":"211404197011010087","phone":"13354573819"}</t>
+          <t>{"user_name":"秦玉梅","id_card_no":"131081195703121871","phone":"15127097004"}</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"跋淑珍","id_card_no":"152201198304156425","phone":"18271984388"}</t>
+          <t>{"user_name":"爱玉","id_card_no":"530426197101177296","phone":"15739827225"}</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"阎坤","id_card_no":"120221194211075634","phone":"13432950446"}</t>
+          <t>{"user_name":"闻英","id_card_no":"110108193404044989","phone":"13542113884"}</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"凌建国","id_card_no":"220582196109225319","phone":"18714638023"}</t>
+          <t>{"user_name":"师颖","id_card_no":"610525198507106504","phone":"15216259787"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-07001_result.xlsx
+++ b/tests/data/output/一级测试用例-07001_result.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"亓坤","id_card_no":"469021198503244923","phone":"13650563367"}</t>
+          <t>{"user_name":"能宁","id_card_no":"520115197312137617","phone":"13898085413"}</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"康秀芳","id_card_no":"522322198806169492","phone":"15152147376"}</t>
+          <t>{"user_name":"公艳","id_card_no":"510700195310190964","phone":"15527755687"}</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"伍丹丹","id_card_no":"140221197901026722","phone":"13827711665"}</t>
+          <t>{"user_name":"惠金凤","id_card_no":"130632194802132250","phone":"14524106696"}</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"单博","id_card_no":"130603195704088746","phone":"13970292189"}</t>
+          <t>{"user_name":"柳明","id_card_no":"220881193302047901","phone":"13962157599"}</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"奚玉珍","id_card_no":"37010019880106414X","phone":"14759935612"}</t>
+          <t>{"user_name":"闻淑华","id_card_no":"341022199007289037","phone":"15036151640"}</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"华淑英","id_card_no":"532923199601117600","phone":"13868832062"}</t>
+          <t>{"user_name":"万涛","id_card_no":"522325197403054812","phone":"15396763092"}</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"惠东","id_card_no":"500243193612028622","phone":"14549137603"}</t>
+          <t>{"user_name":"狐小红","id_card_no":"230221198804089488","phone":"13977790912"}</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"郁玉英","id_card_no":"610626196809092198","phone":"13445300521"}</t>
+          <t>{"user_name":"侯欣","id_card_no":"610631200005135850","phone":"15086747188"}</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"秦玉梅","id_card_no":"131081195703121871","phone":"15127097004"}</t>
+          <t>{"user_name":"骆磊","id_card_no":"141081199711050583","phone":"13431129215"}</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"爱玉","id_card_no":"530426197101177296","phone":"15739827225"}</t>
+          <t>{"user_name":"蓟玉梅","id_card_no":"140105193202099881","phone":"13436451509"}</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"闻英","id_card_no":"110108193404044989","phone":"13542113884"}</t>
+          <t>{"user_name":"浦明","id_card_no":"341221195410255976","phone":"18078686474"}</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"师颖","id_card_no":"610525198507106504","phone":"15216259787"}</t>
+          <t>{"user_name":"尉桂兰","id_card_no":"532929197906246787","phone":"15976401295"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-07001_result.xlsx
+++ b/tests/data/output/一级测试用例-07001_result.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"徒磊","id_card_no":"522629196807243182","phone":"18869435679"}</t>
+          <t>{"user_name":"正萍","id_card_no":"430725195109230570","phone":"18056071963"}</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"屈慧","id_card_no":"230708195411039036","phone":"13494487997"}</t>
+          <t>{"user_name":"宫玲","id_card_no":"371100199704212441","phone":"15146832341"}</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"越涛","id_card_no":"440224200002184844","phone":"15277112778"}</t>
+          <t>{"user_name":"金丽娟","id_card_no":"450324198402056400","phone":"14564995094"}</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"黄平","id_card_no":"650201200003283494","phone":"15394719691"}</t>
+          <t>{"user_name":"咸建国","id_card_no":"513336194104258094","phone":"15280846700"}</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"万旭","id_card_no":"430407195001319099","phone":"18079837902"}</t>
+          <t>{"user_name":"慕佳","id_card_no":"330303196705077761","phone":"15132019040"}</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"魏璐","id_card_no":"440800194509274885","phone":"13754463996"}</t>
+          <t>{"user_name":"孟桂香","id_card_no":"130624197601224785","phone":"15783051169"}</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"归岩","id_card_no":"23071219861104214X","phone":"15829289367"}</t>
+          <t>{"user_name":"简桂兰","id_card_no":"140781195908307177","phone":"15517105632"}</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"益东","id_card_no":"360201193601147925","phone":"14509711248"}</t>
+          <t>{"user_name":"魏雷","id_card_no":"320612193810286298","phone":"15071001500"}</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"闻想","id_card_no":"130522194804243044","phone":"13275895075"}</t>
+          <t>{"user_name":"宗淑华","id_card_no":"433125195605120784","phone":"18577477828"}</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"后丹","id_card_no":"420525193709241677","phone":"15068149258"}</t>
+          <t>{"user_name":"邴斌","id_card_no":"360322197809229669","phone":"13588143654"}</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"粱斌","id_card_no":"513324195109035796","phone":"18674324205"}</t>
+          <t>{"user_name":"项秀荣","id_card_no":"510623195501155597","phone":"13489132608"}</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"仲波","id_card_no":"420325198006110074","phone":"18251581216"}</t>
+          <t>{"user_name":"夹秀荣","id_card_no":"500109199909219779","phone":"18209048678"}</t>
         </is>
       </c>
     </row>
